--- a/frontend/public/DVBC_ERP_Documentation.xlsx
+++ b/frontend/public/DVBC_ERP_Documentation.xlsx
@@ -7,16 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Roles &amp; Permissions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Levels" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dept Features" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Role Page Access" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Business Flows" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pages Inventory" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duplicate Functions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dept Interconnectivity" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recent Sessions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API Endpoints" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Linkage" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Journey" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Roles &amp; Permissions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Levels" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dept Features" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Role Page Access" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Business Flows" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pages Inventory" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duplicate Functions" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dept Interconnectivity" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recent Sessions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API Endpoints" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,8 +41,12 @@
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -57,6 +63,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D9E1F2"/>
         <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E79"/>
+        <bgColor rgb="001F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E7D32"/>
+        <bgColor rgb="002E7D32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57C00"/>
+        <bgColor rgb="00F57C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007B1FA2"/>
+        <bgColor rgb="007B1FA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00616161"/>
+        <bgColor rgb="00616161"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C62828"/>
+        <bgColor rgb="00C62828"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -87,6 +129,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,478 +522,1259 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Role ID</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Role Name</t>
+          <t>Collection</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Link Field</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Is System Role</t>
+          <t>How It Connects</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Can Delete</t>
+          <t>Example Query</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Default Level</t>
+          <t>When Created</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>admin</t>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>IDENTITY</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>employees</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Full system access - all modules, all data, all actions</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Primary Key - used everywhere internally</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>employees.find_one({id: X})</t>
+        </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Leader</t>
+          <t>HR Onboarding Step 1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>manager</t>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>IDENTITY</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Manager</t>
+          <t>employees</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>View/Download access, approve agreements, team management</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Display code (EMP001)</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Show in UI, reports</t>
+        </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Manager</t>
+          <t>Auto-generated on create</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>executive</t>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>IDENTITY</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Executive</t>
+          <t>employees</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Sales team - create leads, SOW, quotations</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Links to users collection for login</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>employees.user_id = users.id</t>
+        </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Executive</t>
+          <t>When portal access granted</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>consultant</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>IDENTITY</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>users</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>View SOW, update progress/status, task management</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>User's login account ID</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Used for notifications, assignments</t>
+        </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>Executive</t>
+          <t>Grant Access action</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>project_manager</t>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>IDENTITY</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>users</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Audit, approve, authorize SOW for client</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Back-reference to employee code</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Cross-lookup</t>
+        </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Manager</t>
+          <t>Grant Access action</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>principal_consultant</t>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Principal Consultant</t>
+          <t>attendance</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Freeze authority, SOW approval, senior consultant</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Daily attendance records</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>attendance.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Leader</t>
+          <t>Daily mark attendance</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>lean_consultant</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Lean Consultant</t>
+          <t>leave_requests</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Junior consultant role - limited access</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Leave applications</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>leave_requests.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Executive</t>
+          <t>Employee applies leave</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>lead_consultant</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Lead Consultant</t>
+          <t>salary_slips</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Lead consultant with team oversight</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Monthly salary slips</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>salary_slips.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Manager</t>
+          <t>Payroll generation</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>senior_consultant</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Senior Consultant</t>
+          <t>ctc_structures</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Senior consultant with advanced permissions</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>CTC design records</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>ctc_structures.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Manager</t>
+          <t>CTC Designer submit</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>hr_executive</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>HR Executive</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>HR team member - no consulting data access</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Expense claims</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>expenses.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
+          <t>Employee submits expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Executive</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>hr_manager</t>
-        </is>
-      </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>bank_change_requests</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>HR team manager - full HR access, limited consulting view</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Bank detail change requests</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>bank_change_requests.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>Employee requests change</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>Manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>account_manager</t>
-        </is>
-      </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Account Manager</t>
+          <t>employee_documents</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Handles client accounts and sales</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Uploaded documents (Aadhaar, PAN)</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>employee_documents.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Manager</t>
+          <t>Onboarding Step 3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>subject_matter_expert</t>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Subject Matter Expert</t>
+          <t>timesheets</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Domain expert for consulting</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Weekly time entries</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>timesheets.find({employee_id: X})</t>
+        </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Leader</t>
+          <t>Weekly timesheet submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>travel_claims</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Travel reimbursement claims</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>travel_claims.find({employee_id: X})</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Travel claim submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Lead creator (user.id)</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>leads.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Lead creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>assigned_to</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Lead owner (user.id)</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>leads.find({assigned_to: user.id})</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Lead assignment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>meetings</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Meeting scheduler</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>meetings.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Meeting created</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>pricing_plans</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Plan author</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>pricing_plans.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Pricing plan saved</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>sow</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>SOW author</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>sow.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>SOW creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>quotations</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Quote generator</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>quotations.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Quote generated</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>agreements</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Agreement creator</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>agreements.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Agreement drafted</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>agreements</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>signed_by_user_id</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Who signed</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>For audit trail</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Agreement signed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>SALES</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>kickoff_requests</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Handoff initiator</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>kickoff_requests.find({created_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Kickoff submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>project_assignments</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>consultant_id</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Assigned consultant (user.id)</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>project_assignments.find({consultant_id: user.id})</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Team assignment</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>project_tasks</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>assigned_to</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Task owner (user.id)</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>project_tasks.find({assigned_to: user.id})</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Task assignment</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>sow_items</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>assigned_consultant_id</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>SOW item assignee</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>sow_items.find({assigned_consultant_id: user.id})</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>SOW item assign</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>consulting_meetings</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Meeting attendee (in array)</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>consulting_meetings.find({participants: user.id})</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Meeting invite</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>payment_reminders</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>sent_by</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Who sent reminder</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>For audit</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Remind button click</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>CONSULTING</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>installment_payments</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>recorded_by</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Who recorded payment</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>For audit</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Record payment action</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>notifications</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Notification recipient</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>notifications.find({user_id: user.id})</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Any system event</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>approval_requests</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>submitted_by</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Request submitter</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>approval_requests.find({submitted_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Any approval submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>approval_requests</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>approved_by</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Request approver</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>approval_requests.find({approved_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Approval action</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>security_logs</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Audit subject</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>security_logs.find({user_id: user.id})</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Login, password change</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>role_requests</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Role change target</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>role_requests.find({employee_id: X})</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Role request submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>role_requests</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>submitted_by</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Who requested</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>role_requests.find({submitted_by: user.id})</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>HR submits</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>HANDOFF</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>created_from_kickoff</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Links project to kickoff request</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>projects.find({created_from_kickoff: kickoff.id})</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>Kickoff acceptance</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>HANDOFF</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>agreement_id</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Links project to agreement</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>projects.find({agreement_id: agreement.id})</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Project creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>HANDOFF</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>sow (inherited)</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>SOW copied to project</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>sow.find({project_id: project.id})</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Kickoff acceptance</t>
         </is>
       </c>
     </row>
@@ -943,6 +1784,1244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>From Dept</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>To Dept</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Trigger Event</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Data Shared</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Notification</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Automated Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Kickoff Request Accepted</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Project details, SOW, Pricing Plan</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>PM/Consultants notified</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Project created with status=active</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Payment Verified</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Payment amount, Transaction ID</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Finance notified</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Payment logged</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Agreement Signed</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Agreement document</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Admin notified</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Approval logged</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Employee Created</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee ID, Name, Role</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Manager notified</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Access pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Leave Approved</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Leave days, Type</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Auto-calculated</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Deduction in salary slip</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Expense Approved</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Amount, Receipt</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Finance notified</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Reimbursement queued</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>CTC Submitted</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Salary breakdown</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Admin notified</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Pending approval</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Bank Change Request</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>New bank details, Proof</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Admin notified (after HR approval)</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>2-step approval</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Payment Reminder Sent</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Project, Installment, Amount</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Finance, Sales, Admin notified</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Reminder logged</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Payment Recorded</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Transaction ID, Amount</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Finance, Sales notified</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Payment marked received</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Consultant Assigned</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Project, Role</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Consultant &amp; Manager notified</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Workload updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>SOW Change Request</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>CR details</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Sales notified</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Pending review</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Role Assigned</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>New role, Permissions</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Employee notified</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Access updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>CTC Approved</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Final CTC structure</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>HR &amp; Employee notified</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Payroll config updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Bank Change Approved</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Bank details</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Employee notified</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Bank details updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Salary Generated</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Payslip</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Employee notified</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Slip available for download</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Mobile App</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Check-in (Unknown Location)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Selfie, GPS, Justification</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>HR notified</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Pending approval</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Major Features/Fixes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Files Modified</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Session 14</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Payment Reminders &amp; Record Payments</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Consulting, Finance</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>project_payments.py, ProjectPaymentDetails.js</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Session 14</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Role-Based Payment Visibility</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Consulting, Finance</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>project_payments.py, ProjectPayments.js, ProjectPaymentDetails.js</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Session 14</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Project Status Auto-Active on Kickoff</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>kickoff.py</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Session 14</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Reset Temp Password Endpoint</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>HR, Admin</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>employees.py</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Session 14</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Remove Amounts Hidden UI</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>ProjectPaymentDetails.js</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Session 13</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Employee Levels System (Executive/Manager/Leader)</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>role_management.py, RoleManagement.js, PermissionDashboard.js</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Session 13</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Level-Based Permissions (10 permissions)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>role_management.py, PermissionContext.js, Layout.js</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Session 13</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Role Request Approval Workflow</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>HR, Admin</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>role_management.py, RoleManagement.js</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Session 13</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Offer &amp; Appointment Letter System</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>letters.py, LetterManagement.js, AcceptOfferPage.js</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Session 12</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Server.py Refactoring Phase 1-3</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Backend</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>stats.py, auth.py, leads.py, etc.</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Session 12</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Stats Router Complete Migration</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>All Dashboards</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>stats.py, server.py</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Session 12</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>SOW Scope Builder in Admin Masters</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>AdminMasters.js</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Session 11</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>PWA Install Prompt</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>PWAInstallPrompt.js, manifest.json, service-worker.js</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Session 11</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Bank Details Change Workflow</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>HR, Admin, Self</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>BankDetailsChangeRequest.js, server.py</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Session 11</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Medium-Priority Workflows Added</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>WorkflowPage.js</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Session 11</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Mobile Responsive Layouts</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Layout.js, HRLayout.js, SalesLayout.js, AdminDashboard.js</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Session 10</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>CTC Designer with Configurable Components</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>HR, Admin</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>CTCDesigner.js, ctc.py</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Session 10</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>CTC Approval Workflow</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>HR, Admin</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>ctc.py, ApprovalsCenter.js</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2346,6 +4425,1195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Step #</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Stage</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Who Does It</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Data Created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Collections Updated</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Notifications Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Hire</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Create Employee Record</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>HR Executive</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Personal details, department, designation</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>employees</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Onboard</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Employment Details</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>HR Executive</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DOJ, reporting manager, role</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>employees</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Manager notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Onboard</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Upload Documents</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>HR/Employee</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Aadhaar, PAN, certificates</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>employees, employee_documents</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Onboard</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Bank Details</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>HR/Employee</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Account number, IFSC, proof</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>employees</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Grant Portal Access</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>HR Manager/Admin</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Login credentials, temp password</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>users, employees.user_id</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Employee gets email</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Setup</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Design CTC</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Salary components, breakdown</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>ctc_structures (pending)</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Admin notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Setup</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Approve CTC</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>CTC activation</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>ctc_structures (active), employees.salary</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>HR &amp; Employee notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Mark Attendance</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Self/HR</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Daily record</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>attendance</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Apply Leave</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Leave request</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>leave_requests, approval_requests</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Manager notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Submit Expense</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Expense claim</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>expenses, approval_requests</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Manager notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Log Timesheet</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Weekly hours</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>timesheets</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>PM notified on submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Get Assigned to Project</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>PM/Admin</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Team membership</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>project_assignments</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Employee &amp; Manager notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Work on Tasks</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Task updates</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>project_tasks</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>PM notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>View SOW Items</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Read-only</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>None (read)</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Salary Generated</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>HR/System</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Payslip</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>salary_slips</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Employee notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Request Bank Change</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Self</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>New bank details</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>bank_change_requests</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>HR notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Request Role Change</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Role request</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>role_requests</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Admin notified</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Exit</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Terminate Employee</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>HR/Admin</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Status update</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>employees.status = terminated</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>System access revoked</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Role ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Role Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Is System Role</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Can Delete</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Default Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Full system access - all modules, all data, all actions</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Leader</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>View/Download access, approve agreements, team management</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>executive</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Sales team - create leads, SOW, quotations</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>consultant</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Consultant</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>View SOW, update progress/status, task management</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>project_manager</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Audit, approve, authorize SOW for client</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>principal_consultant</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Principal Consultant</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Freeze authority, SOW approval, senior consultant</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Leader</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>lean_consultant</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Lean Consultant</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Junior consultant role - limited access</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>lead_consultant</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Lead Consultant</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Lead consultant with team oversight</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>senior_consultant</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Senior Consultant</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Senior consultant with advanced permissions</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>hr_executive</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>HR Executive</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>HR team member - no consulting data access</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Executive</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>hr_manager</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>HR team manager - full HR access, limited consulting view</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>account_manager</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Account Manager</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Handles client accounts and sales</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>subject_matter_expert</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Subject Matter Expert</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Domain expert for consulting</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Leader</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2566,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4000,7 +7268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6597,7 +9865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8108,7 +11376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10393,7 +13661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10802,1242 +14070,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>From Dept</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>To Dept</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trigger Event</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Data Shared</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Notification</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Automated Action</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Kickoff Request Accepted</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Project details, SOW, Pricing Plan</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>PM/Consultants notified</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Project created with status=active</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Payment Verified</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Payment amount, Transaction ID</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Finance notified</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Payment logged</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Agreement Signed</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Agreement document</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Admin notified</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Approval logged</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Employee Created</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Employee ID, Name, Role</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Manager notified</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Access pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Payroll</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Leave Approved</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Leave days, Type</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Auto-calculated</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Deduction in salary slip</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Expense Approved</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Amount, Receipt</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Finance notified</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Reimbursement queued</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>CTC Submitted</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Salary breakdown</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Admin notified</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Pending approval</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Bank Change Request</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>New bank details, Proof</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Admin notified (after HR approval)</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>2-step approval</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Payment Reminder Sent</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Project, Installment, Amount</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Finance, Sales, Admin notified</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Reminder logged</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Payment Recorded</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Transaction ID, Amount</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Finance, Sales notified</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Payment marked received</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Consultant Assigned</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Project, Role</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Consultant &amp; Manager notified</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Workload updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>SOW Change Request</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>CR details</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Sales notified</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Pending review</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Role Assigned</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>New role, Permissions</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Employee notified</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Access updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>CTC Approved</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Final CTC structure</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>HR &amp; Employee notified</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Payroll config updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Bank Change Approved</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Bank details</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Employee notified</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Bank details updated</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Salary Generated</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Payslip</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Employee notified</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Slip available for download</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Mobile App</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Check-in (Unknown Location)</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Selfie, GPS, Justification</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>HR notified</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Pending approval</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Major Features/Fixes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Department Impact</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Files Modified</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Session 14</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Payment Reminders &amp; Record Payments</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Consulting, Finance</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>project_payments.py, ProjectPaymentDetails.js</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Session 14</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Role-Based Payment Visibility</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Consulting, Finance</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>project_payments.py, ProjectPayments.js, ProjectPaymentDetails.js</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Session 14</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Project Status Auto-Active on Kickoff</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>kickoff.py</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Session 14</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Reset Temp Password Endpoint</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>HR, Admin</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>employees.py</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Session 14</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Remove Amounts Hidden UI</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>ProjectPaymentDetails.js</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Session 13</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Employee Levels System (Executive/Manager/Leader)</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>role_management.py, RoleManagement.js, PermissionDashboard.js</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Session 13</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Level-Based Permissions (10 permissions)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>role_management.py, PermissionContext.js, Layout.js</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Session 13</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Role Request Approval Workflow</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>HR, Admin</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>role_management.py, RoleManagement.js</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Session 13</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Offer &amp; Appointment Letter System</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>letters.py, LetterManagement.js, AcceptOfferPage.js</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Session 12</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Server.py Refactoring Phase 1-3</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Backend</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>stats.py, auth.py, leads.py, etc.</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Session 12</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Stats Router Complete Migration</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>All Dashboards</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>stats.py, server.py</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Feb 18</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Session 12</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>SOW Scope Builder in Admin Masters</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>AdminMasters.js</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Session 11</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>PWA Install Prompt</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>PWAInstallPrompt.js, manifest.json, service-worker.js</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Session 11</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Bank Details Change Workflow</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>HR, Admin, Self</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>BankDetailsChangeRequest.js, server.py</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Session 11</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Medium-Priority Workflows Added</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>WorkflowPage.js</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Session 11</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Mobile Responsive Layouts</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>Layout.js, HRLayout.js, SalesLayout.js, AdminDashboard.js</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Session 10</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>CTC Designer with Configurable Components</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>HR, Admin</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>CTCDesigner.js, ctc.py</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Feb 17</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Session 10</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CTC Approval Workflow</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>HR, Admin</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>ctc.py, ApprovalsCenter.js</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>